--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1070825.450559227</v>
+        <v>-1073381.766386477</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12574568.46673314</v>
+        <v>12574568.46673313</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163.1122750074551</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>246.7053196171315</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>118.555900802729</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>222.8178883860357</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>267.7301114206917</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>178.3025074251567</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>78.52789638094441</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>163.826932093916</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.71145624902186</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>119.5542949307283</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,16 +1294,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>210.5312375168955</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>239.1384001047446</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>81.11398998229679</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1582,16 +1582,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>281.6778446725259</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>212.4227888883777</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>179.2499669408062</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>18.70843787977265</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>178.485548240494</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>213.873210600095</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>42.71572132711243</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.74133133758728</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261736</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545294</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
@@ -3244,16 +3244,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3481,16 +3481,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1934.181533884357</v>
+        <v>1881.708680670286</v>
       </c>
       <c r="C2" t="n">
-        <v>1565.219016943946</v>
+        <v>1512.746163729874</v>
       </c>
       <c r="D2" t="n">
-        <v>1206.953318337195</v>
+        <v>1154.480465123124</v>
       </c>
       <c r="E2" t="n">
-        <v>821.1650657389509</v>
+        <v>768.6922125248793</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>357.7063077352718</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4346,7 +4346,7 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.58875505237</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136267</v>
+        <v>2994.542934265602</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.546497866153</v>
+        <v>2641.774278995487</v>
       </c>
       <c r="X2" t="n">
-        <v>2489.080739605073</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y2" t="n">
-        <v>2098.941407629261</v>
+        <v>2268.308520734407</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218345</v>
@@ -4410,7 +4410,7 @@
         <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
         <v>765.1517452158137</v>
@@ -4419,16 +4419,16 @@
         <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6477645191717</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
         <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>799.6142115756896</v>
+        <v>799.6142115756895</v>
       </c>
       <c r="N4" t="n">
-        <v>1107.914056430628</v>
+        <v>1107.914056430631</v>
       </c>
       <c r="O4" t="n">
-        <v>1407.243655351041</v>
+        <v>1407.243655351044</v>
       </c>
       <c r="P4" t="n">
-        <v>1639.851155784701</v>
+        <v>1639.851155784704</v>
       </c>
       <c r="Q4" t="n">
-        <v>1717.461451937216</v>
+        <v>1717.461451937218</v>
       </c>
       <c r="R4" t="n">
-        <v>1627.630994694744</v>
+        <v>1717.461451937218</v>
       </c>
       <c r="S4" t="n">
-        <v>1435.94511052157</v>
+        <v>1717.461451937218</v>
       </c>
       <c r="T4" t="n">
-        <v>1316.191675367298</v>
+        <v>1717.461451937218</v>
       </c>
       <c r="U4" t="n">
-        <v>1027.088808492942</v>
+        <v>1428.358585062862</v>
       </c>
       <c r="V4" t="n">
-        <v>1027.088808492942</v>
+        <v>1428.358585062862</v>
       </c>
       <c r="W4" t="n">
-        <v>1027.088808492942</v>
+        <v>1138.941415025901</v>
       </c>
       <c r="X4" t="n">
-        <v>1027.088808492942</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y4" t="n">
-        <v>806.2962293494114</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1548.766690866871</v>
+        <v>1384.829779622647</v>
       </c>
       <c r="C5" t="n">
-        <v>1179.804173926459</v>
+        <v>1015.867262682235</v>
       </c>
       <c r="D5" t="n">
-        <v>1179.804173926459</v>
+        <v>657.6015640754847</v>
       </c>
       <c r="E5" t="n">
-        <v>794.015921328215</v>
+        <v>657.6015640754847</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>246.6156592858771</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810559</v>
@@ -4580,10 +4580,10 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.58875505237</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176919</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906804</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906804</v>
+        <v>2161.56895166258</v>
       </c>
       <c r="Y5" t="n">
-        <v>1935.366530930993</v>
+        <v>1771.429619686769</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064541</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>759.689087308229</v>
+        <v>650.5934525793617</v>
       </c>
       <c r="C7" t="n">
-        <v>590.7529043803221</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D7" t="n">
-        <v>440.6362649679863</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E7" t="n">
-        <v>292.7231713855932</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>145.8332238876829</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218345</v>
@@ -4726,16 +4726,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1281.024047451149</v>
       </c>
       <c r="W7" t="n">
-        <v>1169.327103036486</v>
+        <v>1281.024047451149</v>
       </c>
       <c r="X7" t="n">
-        <v>941.3375521384687</v>
+        <v>1053.034496553131</v>
       </c>
       <c r="Y7" t="n">
-        <v>941.3375521384687</v>
+        <v>832.2419174096015</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1278.358723975039</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C8" t="n">
-        <v>1278.358723975039</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2303.982127379311</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2303.982127379311</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2303.982127379311</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4875,7 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>478.9911633238872</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4957,7 +4957,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1714.636732414861</v>
       </c>
       <c r="U10" t="n">
-        <v>1735.608663915319</v>
+        <v>1425.533865540505</v>
       </c>
       <c r="V10" t="n">
-        <v>1735.608663915319</v>
+        <v>1170.849377334618</v>
       </c>
       <c r="W10" t="n">
-        <v>1494.054724415577</v>
+        <v>881.4322072976571</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>881.4322072976571</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>660.639628154127</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5021,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5042,19 +5042,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5127,16 +5127,16 @@
         <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>808.8888553856862</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>639.9526724577793</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>489.8360330454435</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
         <v>407.9027098310023</v>
@@ -5230,19 +5230,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1759.983708831312</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.5373202159259</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2165.348906208039</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1876.273679552237</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1621.58919134635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,58 +5507,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817744</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919727</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273902</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1981.028999426865</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1691.953772771063</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1437.269284565176</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1437.269284565176</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,19 +6008,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6218,34 +6218,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6361,25 +6361,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,13 +6415,13 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
         <v>974.1018203925706</v>
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>538.7363435406111</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2404.800122633203</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2221.945288288107</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2002.343823311048</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1713.268596655246</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1458.584108449359</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1169.166938412398</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>941.1773875143809</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>720.3848083708508</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6695,7 +6695,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319331</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.825546038073</v>
@@ -7120,25 +7120,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580115</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,16 +7591,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,25 +7828,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-4.551097703221577e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>138.3747553788794</v>
+        <v>138.3747553788825</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>219.6215666560255</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>164.216406036322</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -22604,7 +22604,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22708,22 +22708,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>100.9930484734402</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22765,10 +22765,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>2.891767003001485</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>65.31997266427238</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>4.506629716718237</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.52413829227</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>4.982661438910583</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>46.45968844823099</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23899,10 +23899,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>40.09910511160075</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>3.532239727193229</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>124.5310997715154</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.63391537253441</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26323,13 +26323,13 @@
         <v>201786.6499225015</v>
       </c>
       <c r="F2" t="n">
+        <v>201786.6499225016</v>
+      </c>
+      <c r="G2" t="n">
         <v>201786.6499225015</v>
       </c>
-      <c r="G2" t="n">
-        <v>201786.6499225016</v>
-      </c>
       <c r="H2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="I2" t="n">
         <v>201786.6499225016</v>
@@ -26344,13 +26344,13 @@
         <v>205260.4424660712</v>
       </c>
       <c r="M2" t="n">
+        <v>205260.4424660712</v>
+      </c>
+      <c r="N2" t="n">
         <v>205260.442466071</v>
       </c>
-      <c r="N2" t="n">
-        <v>205260.4424660709</v>
-      </c>
       <c r="O2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.442466071</v>
       </c>
       <c r="P2" t="n">
         <v>205260.4424660709</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11234.60594742171</v>
+        <v>11234.60594742178</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820628</v>
+        <v>93403.78684820625</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26436,28 +26436,28 @@
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
         <v>22207.61133994853</v>
       </c>
       <c r="M4" t="n">
+        <v>22207.61133994851</v>
+      </c>
+      <c r="N4" t="n">
         <v>22207.61133994853</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>22207.61133994851</v>
       </c>
-      <c r="O4" t="n">
-        <v>22207.61133994853</v>
-      </c>
       <c r="P4" t="n">
-        <v>22207.61133994852</v>
+        <v>22207.61133994851</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1278661.151342086</v>
+        <v>-1279021.234357804</v>
       </c>
       <c r="C6" t="n">
-        <v>3922.715056471614</v>
+        <v>3922.715056471265</v>
       </c>
       <c r="D6" t="n">
-        <v>3922.715056471177</v>
+        <v>3922.715056471396</v>
       </c>
       <c r="E6" t="n">
-        <v>-238965.0937856158</v>
+        <v>-238999.8317110515</v>
       </c>
       <c r="F6" t="n">
-        <v>86447.36802173934</v>
+        <v>86412.63009630371</v>
       </c>
       <c r="G6" t="n">
-        <v>86447.36802173941</v>
+        <v>86412.63009630368</v>
       </c>
       <c r="H6" t="n">
-        <v>86447.36802173941</v>
+        <v>86412.63009630368</v>
       </c>
       <c r="I6" t="n">
-        <v>86447.36802173936</v>
+        <v>86412.63009630371</v>
       </c>
       <c r="J6" t="n">
-        <v>-131083.8343755383</v>
+        <v>-131118.5723009739</v>
       </c>
       <c r="K6" t="n">
-        <v>86447.36802173933</v>
+        <v>86412.63009630371</v>
       </c>
       <c r="L6" t="n">
-        <v>60460.99727857547</v>
+        <v>60460.99727857549</v>
       </c>
       <c r="M6" t="n">
-        <v>-5166.31266330478</v>
+        <v>-5166.312663304474</v>
       </c>
       <c r="N6" t="n">
-        <v>79888.71527220702</v>
+        <v>79888.71527220705</v>
       </c>
       <c r="O6" t="n">
-        <v>79888.71527220687</v>
+        <v>79888.71527220705</v>
       </c>
       <c r="P6" t="n">
         <v>79888.71527220699</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.2846474920397</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>139.1459343210197</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>232.6192182282967</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>87.49791187808381</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>88.31071122991199</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>353.0223854144587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>229.6866737866847</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28014,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>9.017711759273709</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>47.38459823184644</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,10 +31039,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
@@ -31051,31 +31051,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
         <v>19.17787942451121</v>
@@ -31124,43 +31124,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,19 +31203,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883116</v>
@@ -31230,13 +31230,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31847,7 +31847,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,10 +31856,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32230,7 +32230,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32257,7 +32257,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>162.5000833330459</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32564,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,10 +33415,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34699,28 +34699,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840383</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>311.4139847019578</v>
+        <v>311.4139847019609</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,10 +35504,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060439</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>23.94570355317167</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36212,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,10 +37063,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,10 +37473,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
